--- a/coursework/screenlayout.xlsx
+++ b/coursework/screenlayout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ardadogan/Documents/code/mad/coursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99553E4E-9C0C-7246-A50A-CE5D37C14582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4335D621-1AA2-D446-A102-F00232E25577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C1260399-7334-454E-A893-C7DAC5EDF46F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{C1260399-7334-454E-A893-C7DAC5EDF46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>LOGIN</t>
   </si>
@@ -58,6 +58,38 @@
   </si>
   <si>
     <t>CHOSEN FOLDER</t>
+  </si>
+  <si>
+    <t>LOGIN
+(MainActivity)</t>
+  </si>
+  <si>
+    <t>USER REGISTRATION
+(RegisterUser)</t>
+  </si>
+  <si>
+    <t>HOMEPAGE
+(ProfileActivity)</t>
+  </si>
+  <si>
+    <t>BUCKET LIST
+(BucketList)</t>
+  </si>
+  <si>
+    <t>USER GUIDE
+(UserGuideActivity)</t>
+  </si>
+  <si>
+    <t>RESULTS
+(ResultsActivity)</t>
+  </si>
+  <si>
+    <t>SEARCH FLIGHTS
+(SearchActivity)</t>
+  </si>
+  <si>
+    <t>NOTE DETAIL
+(NoteDetailActivity)</t>
   </si>
 </sst>
 </file>
@@ -88,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -111,15 +143,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -127,6 +193,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,72 +526,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E37B11E-9FE7-BE4B-963F-51347C82821A}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="50" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
